--- a/modelos/OBAPPA4451061/OBAPPA4451061_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451061/OBAPPA4451061_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44743</v>
+        <v>44740</v>
       </c>
       <c r="B2" t="n">
-        <v>12.44694270110398</v>
+        <v>53.82648213538997</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.29820708173177</v>
+        <v>22.93344040622372</v>
       </c>
       <c r="D2" t="n">
-        <v>43.57572824693381</v>
+        <v>86.04233812919263</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44740</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44747</v>
+        <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>29.59658842385821</v>
+        <v>10.82848564057594</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.106197361499244</v>
+        <v>-22.54454994385607</v>
       </c>
       <c r="D3" t="n">
-        <v>62.59932076628448</v>
+        <v>42.08053246522654</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44740</v>
@@ -513,159 +513,159 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
       <c r="B4" t="n">
-        <v>18.99106908400465</v>
+        <v>27.94921185343732</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.17728523914916</v>
+        <v>-1.33663517028174</v>
       </c>
       <c r="D4" t="n">
-        <v>49.23353635331343</v>
+        <v>59.53974921714978</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44747</v>
+        <v>44740</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44768</v>
+        <v>44754</v>
       </c>
       <c r="B5" t="n">
-        <v>25.50838701053801</v>
+        <v>18.13483450057912</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.7484318733609</v>
+        <v>-13.78949005605992</v>
       </c>
       <c r="D5" t="n">
-        <v>57.4744733769071</v>
+        <v>50.80200587017138</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44761</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
       <c r="B6" t="n">
-        <v>36.29288022877857</v>
+        <v>24.02797065247991</v>
       </c>
       <c r="C6" t="n">
-        <v>3.905489405181774</v>
+        <v>-8.899301480648907</v>
       </c>
       <c r="D6" t="n">
-        <v>68.40562380308435</v>
+        <v>55.9532759679399</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44768</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
       <c r="B7" t="n">
-        <v>43.00601653198162</v>
+        <v>33.8488264704396</v>
       </c>
       <c r="C7" t="n">
-        <v>10.97251001952216</v>
+        <v>3.700092020004206</v>
       </c>
       <c r="D7" t="n">
-        <v>78.55612993438858</v>
+        <v>64.0689708161606</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44775</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
       <c r="B8" t="n">
-        <v>37.7323094935132</v>
+        <v>42.38259979441759</v>
       </c>
       <c r="C8" t="n">
-        <v>7.031421897517854</v>
+        <v>12.93998098865577</v>
       </c>
       <c r="D8" t="n">
-        <v>67.93765496103326</v>
+        <v>73.46568943751456</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44782</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
       <c r="B9" t="n">
-        <v>37.1657884319978</v>
+        <v>37.84613989983447</v>
       </c>
       <c r="C9" t="n">
-        <v>5.72438159958006</v>
+        <v>9.836079111212227</v>
       </c>
       <c r="D9" t="n">
-        <v>67.59132484154442</v>
+        <v>68.16756280149734</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44789</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44806</v>
+        <v>44796</v>
       </c>
       <c r="B10" t="n">
-        <v>11.23504301558464</v>
+        <v>37.83378218380737</v>
       </c>
       <c r="C10" t="n">
-        <v>-18.58453907761806</v>
+        <v>6.667278770385662</v>
       </c>
       <c r="D10" t="n">
-        <v>42.80343835917863</v>
+        <v>69.86360597545924</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44803</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44810</v>
+        <v>44806</v>
       </c>
       <c r="B11" t="n">
-        <v>45.72303230121123</v>
+        <v>9.556218361035967</v>
       </c>
       <c r="C11" t="n">
-        <v>13.222390854261</v>
+        <v>-21.60374702814703</v>
       </c>
       <c r="D11" t="n">
-        <v>73.5127513809996</v>
+        <v>40.42810331760694</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>44803</v>
@@ -673,199 +673,199 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="B12" t="n">
-        <v>59.55042585809495</v>
+        <v>43.89991982462634</v>
       </c>
       <c r="C12" t="n">
-        <v>29.66791218400693</v>
+        <v>11.7378778572803</v>
       </c>
       <c r="D12" t="n">
-        <v>91.78876385299573</v>
+        <v>75.52192745016492</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B13" t="n">
-        <v>75.26933423479804</v>
+        <v>59.84662269849123</v>
       </c>
       <c r="C13" t="n">
-        <v>44.2288701682239</v>
+        <v>28.79768243373618</v>
       </c>
       <c r="D13" t="n">
-        <v>105.4125621035376</v>
+        <v>92.64960063907083</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B14" t="n">
-        <v>93.31531494778744</v>
+        <v>76.70958215607584</v>
       </c>
       <c r="C14" t="n">
-        <v>60.45001249934668</v>
+        <v>47.18814719883991</v>
       </c>
       <c r="D14" t="n">
-        <v>126.6324509984192</v>
+        <v>108.8554027856979</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B15" t="n">
-        <v>91.64185591886968</v>
+        <v>93.07271247037458</v>
       </c>
       <c r="C15" t="n">
-        <v>59.23737408898051</v>
+        <v>61.82137272021495</v>
       </c>
       <c r="D15" t="n">
-        <v>122.4606194974347</v>
+        <v>122.9895577375027</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B16" t="n">
-        <v>75.98343231443926</v>
+        <v>91.08660315134574</v>
       </c>
       <c r="C16" t="n">
-        <v>47.18715554514282</v>
+        <v>58.06859782804958</v>
       </c>
       <c r="D16" t="n">
-        <v>107.3461216862867</v>
+        <v>122.1763863620214</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B17" t="n">
-        <v>54.82593360933099</v>
+        <v>75.51858759125726</v>
       </c>
       <c r="C17" t="n">
-        <v>25.29220832461086</v>
+        <v>43.27571431588694</v>
       </c>
       <c r="D17" t="n">
-        <v>87.11309727401975</v>
+        <v>108.0368286649455</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B18" t="n">
-        <v>35.3926874336258</v>
+        <v>55.21242708860252</v>
       </c>
       <c r="C18" t="n">
-        <v>4.052179104405234</v>
+        <v>25.2229631783139</v>
       </c>
       <c r="D18" t="n">
-        <v>67.46536886171694</v>
+        <v>86.35964539504614</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B19" t="n">
-        <v>22.16664096239639</v>
+        <v>33.62963710553219</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.66968056116031</v>
+        <v>0.4545655262840849</v>
       </c>
       <c r="D19" t="n">
-        <v>56.66478708691827</v>
+        <v>65.77031133665176</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B20" t="n">
-        <v>-7.456430204831864</v>
+        <v>21.91638558274023</v>
       </c>
       <c r="C20" t="n">
-        <v>-38.44685973667863</v>
+        <v>-10.35682385481809</v>
       </c>
       <c r="D20" t="n">
-        <v>24.33118301434</v>
+        <v>52.44665064052906</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B21" t="n">
-        <v>21.63775505893068</v>
+        <v>-8.428000807396966</v>
       </c>
       <c r="C21" t="n">
-        <v>-9.633549792205969</v>
+        <v>-37.99373673472946</v>
       </c>
       <c r="D21" t="n">
-        <v>53.3690916381755</v>
+        <v>24.20254621669069</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44866</v>
@@ -873,216 +873,216 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B22" t="n">
-        <v>27.14630072597609</v>
+        <v>20.53471137347197</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.526338596667535</v>
+        <v>-10.91634334634737</v>
       </c>
       <c r="D22" t="n">
-        <v>59.45441657917757</v>
+        <v>52.64016700999653</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B23" t="n">
-        <v>24.78926578740885</v>
+        <v>27.34985609246278</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.111275862873035</v>
+        <v>-4.05069443323903</v>
       </c>
       <c r="D23" t="n">
-        <v>55.60576108696065</v>
+        <v>59.14171711235227</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B24" t="n">
-        <v>28.47245150360498</v>
+        <v>24.99879388267838</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.320546459157409</v>
+        <v>-6.560164748105509</v>
       </c>
       <c r="D24" t="n">
-        <v>61.67734135822928</v>
+        <v>57.10169281185243</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B25" t="n">
-        <v>26.62035686449102</v>
+        <v>29.49719814143866</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.1122886297652</v>
+        <v>-1.799367182545079</v>
       </c>
       <c r="D25" t="n">
-        <v>57.77539049621524</v>
+        <v>59.93851857894089</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B26" t="n">
-        <v>25.31829966546917</v>
+        <v>26.53298160939013</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.134863690489635</v>
+        <v>-6.32179571471266</v>
       </c>
       <c r="D26" t="n">
-        <v>55.3013458977689</v>
+        <v>59.63436159127468</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B27" t="n">
-        <v>28.69589653090626</v>
+        <v>25.67799665854369</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.857875423947482</v>
+        <v>-3.007846191703887</v>
       </c>
       <c r="D27" t="n">
-        <v>59.83920550875678</v>
+        <v>57.1958520430853</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B28" t="n">
-        <v>38.18044325574137</v>
+        <v>27.61190434052704</v>
       </c>
       <c r="C28" t="n">
-        <v>7.75675054377251</v>
+        <v>-4.39086617522609</v>
       </c>
       <c r="D28" t="n">
-        <v>66.39745254073263</v>
+        <v>56.78681980435589</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B29" t="n">
-        <v>54.78633254932338</v>
+        <v>37.5261555319034</v>
       </c>
       <c r="C29" t="n">
-        <v>24.35848583579347</v>
+        <v>7.247017550811939</v>
       </c>
       <c r="D29" t="n">
-        <v>85.28247959546822</v>
+        <v>68.58735187440996</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B30" t="n">
-        <v>59.57725230506757</v>
+        <v>54.6797227367512</v>
       </c>
       <c r="C30" t="n">
-        <v>30.18036044114204</v>
+        <v>22.77490027764372</v>
       </c>
       <c r="D30" t="n">
-        <v>90.25079233300963</v>
+        <v>86.53696932340138</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44953</v>
+        <v>44943</v>
       </c>
       <c r="B31" t="n">
-        <v>3.92325172631609</v>
+        <v>59.04308320441444</v>
       </c>
       <c r="C31" t="n">
-        <v>-27.6449530612725</v>
+        <v>30.943661618057</v>
       </c>
       <c r="D31" t="n">
-        <v>35.02389199126517</v>
+        <v>90.38287539576334</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44957</v>
+        <v>44953</v>
       </c>
       <c r="B32" t="n">
-        <v>17.67653195780237</v>
+        <v>3.339470277814057</v>
       </c>
       <c r="C32" t="n">
-        <v>-14.45660759556101</v>
+        <v>-30.49611344003526</v>
       </c>
       <c r="D32" t="n">
-        <v>49.11358656574873</v>
+        <v>36.80228472103896</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -1093,39 +1093,39 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B33" t="n">
-        <v>-14.57427238137224</v>
+        <v>17.88119019650649</v>
       </c>
       <c r="C33" t="n">
-        <v>-46.58352688273045</v>
+        <v>-13.07630917894833</v>
       </c>
       <c r="D33" t="n">
-        <v>16.10780765059247</v>
+        <v>48.82682756615036</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B34" t="n">
-        <v>7.209190297959736</v>
+        <v>-15.31796441998889</v>
       </c>
       <c r="C34" t="n">
-        <v>-25.32878577396235</v>
+        <v>-45.10396190360744</v>
       </c>
       <c r="D34" t="n">
-        <v>37.84546984599997</v>
+        <v>16.22064542310567</v>
       </c>
       <c r="E34" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>44957</v>
@@ -1133,59 +1133,59 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B35" t="n">
-        <v>22.56935206865699</v>
+        <v>6.773043484330826</v>
       </c>
       <c r="C35" t="n">
-        <v>-7.286536473385787</v>
+        <v>-24.76002982562302</v>
       </c>
       <c r="D35" t="n">
-        <v>52.89853538310422</v>
+        <v>37.90626068937647</v>
       </c>
       <c r="E35" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B36" t="n">
-        <v>89.96197772793334</v>
+        <v>21.72762882902617</v>
       </c>
       <c r="C36" t="n">
-        <v>57.77444857929822</v>
+        <v>-10.30902727981922</v>
       </c>
       <c r="D36" t="n">
-        <v>118.2331847396433</v>
+        <v>51.02193121473744</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B37" t="n">
-        <v>84.62013370159147</v>
+        <v>89.0027680534736</v>
       </c>
       <c r="C37" t="n">
-        <v>53.53063924800108</v>
+        <v>56.57636565530653</v>
       </c>
       <c r="D37" t="n">
-        <v>117.7283385043999</v>
+        <v>119.7784027397496</v>
       </c>
       <c r="E37" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>44978</v>
@@ -1193,39 +1193,39 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B38" t="n">
-        <v>53.69100511500591</v>
+        <v>82.65580614690742</v>
       </c>
       <c r="C38" t="n">
-        <v>21.73991869344459</v>
+        <v>49.14108597266826</v>
       </c>
       <c r="D38" t="n">
-        <v>84.79082625419609</v>
+        <v>113.0861923357834</v>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B39" t="n">
-        <v>80.14804484217356</v>
+        <v>53.04363944051276</v>
       </c>
       <c r="C39" t="n">
-        <v>49.87207841752128</v>
+        <v>22.52815333162771</v>
       </c>
       <c r="D39" t="n">
-        <v>111.2647113860032</v>
+        <v>84.76821688378384</v>
       </c>
       <c r="E39" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>44985</v>
@@ -1233,201 +1233,221 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B40" t="n">
-        <v>65.15132185598225</v>
+        <v>79.9673497661928</v>
       </c>
       <c r="C40" t="n">
-        <v>31.97487548056641</v>
+        <v>49.35447333770605</v>
       </c>
       <c r="D40" t="n">
-        <v>92.79787748382944</v>
+        <v>111.3970348224666</v>
       </c>
       <c r="E40" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B41" t="n">
-        <v>40.54412717539115</v>
+        <v>65.56744084986319</v>
       </c>
       <c r="C41" t="n">
-        <v>9.385173393962424</v>
+        <v>33.70776349261328</v>
       </c>
       <c r="D41" t="n">
-        <v>72.03166407001029</v>
+        <v>98.61493082432001</v>
       </c>
       <c r="E41" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B42" t="n">
-        <v>27.62081231387323</v>
+        <v>39.86698885513889</v>
       </c>
       <c r="C42" t="n">
-        <v>-3.592035313684975</v>
+        <v>6.34485086970898</v>
       </c>
       <c r="D42" t="n">
-        <v>57.93432747391981</v>
+        <v>72.90866495244796</v>
       </c>
       <c r="E42" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B43" t="n">
-        <v>26.29555737368362</v>
+        <v>26.07406469693969</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.377343687931418</v>
+        <v>-2.771824462712906</v>
       </c>
       <c r="D43" t="n">
-        <v>58.66297951470202</v>
+        <v>57.82077254466358</v>
       </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B44" t="n">
-        <v>25.23643123163473</v>
+        <v>23.36469736042199</v>
       </c>
       <c r="C44" t="n">
-        <v>-4.767394946877161</v>
+        <v>-9.690006718167259</v>
       </c>
       <c r="D44" t="n">
-        <v>56.40364177643161</v>
+        <v>56.82620902648684</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B45" t="n">
-        <v>22.467964351094</v>
+        <v>24.853202645614</v>
       </c>
       <c r="C45" t="n">
-        <v>-10.76382880990173</v>
+        <v>-7.352009530329213</v>
       </c>
       <c r="D45" t="n">
-        <v>54.58855580653174</v>
+        <v>53.95196351838303</v>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B46" t="n">
-        <v>13.26147441943737</v>
+        <v>24.10507097860154</v>
       </c>
       <c r="C46" t="n">
-        <v>-18.08799014701937</v>
+        <v>-6.261573817536493</v>
       </c>
       <c r="D46" t="n">
-        <v>43.93756159753874</v>
+        <v>53.46037164331945</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B47" t="n">
-        <v>18.9980436567564</v>
+        <v>15.89491030717867</v>
       </c>
       <c r="C47" t="n">
-        <v>-9.789492548347239</v>
+        <v>-16.89378184982935</v>
       </c>
       <c r="D47" t="n">
-        <v>52.42966630809104</v>
+        <v>46.85757192470838</v>
       </c>
       <c r="E47" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B48" t="n">
-        <v>25.03094461338037</v>
+        <v>22.91482562420138</v>
       </c>
       <c r="C48" t="n">
-        <v>-6.111302007198942</v>
+        <v>-8.506616102610336</v>
       </c>
       <c r="D48" t="n">
-        <v>58.28280588046946</v>
+        <v>53.5748066841034</v>
       </c>
       <c r="E48" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B49" t="n">
+        <v>27.30107990849201</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.203577102740029</v>
+      </c>
+      <c r="D49" t="n">
+        <v>59.81890765470798</v>
+      </c>
+      <c r="E49" t="n">
+        <v>48</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B49" t="n">
-        <v>17.91035719829281</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-15.47173237109255</v>
-      </c>
-      <c r="D49" t="n">
-        <v>50.95960712949387</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="B50" t="n">
+        <v>17.09849419923272</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-12.81851121330283</v>
+      </c>
+      <c r="D50" t="n">
+        <v>49.68529287480941</v>
+      </c>
+      <c r="E50" t="n">
         <v>16</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F50" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1497,22 +1517,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>301.4423691207037</v>
+        <v>324.5330573325982</v>
       </c>
       <c r="C2" t="n">
-        <v>17.36209575830935</v>
+        <v>18.01480106280939</v>
       </c>
       <c r="D2" t="n">
-        <v>16.01941170970088</v>
+        <v>16.84423839807878</v>
       </c>
       <c r="E2" t="n">
-        <v>1.176241581194779</v>
+        <v>1.240288386209584</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7163203384745895</v>
+        <v>0.7463256419271238</v>
       </c>
       <c r="G2" t="n">
-        <v>1.154825299631113</v>
+        <v>1.211645608831099</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1523,22 +1543,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>167.1488280167266</v>
+        <v>186.5998354468122</v>
       </c>
       <c r="C3" t="n">
-        <v>12.92860502980606</v>
+        <v>13.66015503011632</v>
       </c>
       <c r="D3" t="n">
-        <v>10.86673470030888</v>
+        <v>11.87494317151911</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8488956312422509</v>
+        <v>0.9593036649344417</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6677641061368027</v>
+        <v>0.8441159823074798</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7819309795748661</v>
+        <v>0.8490423225842914</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1549,25 +1569,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>812.1112325440772</v>
+        <v>805.8054013736473</v>
       </c>
       <c r="C4" t="n">
-        <v>28.49756537924033</v>
+        <v>28.38671170413451</v>
       </c>
       <c r="D4" t="n">
-        <v>20.96900605380833</v>
+        <v>21.15729479623724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8853835213000201</v>
+        <v>0.9048859889705998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5298051652363128</v>
+        <v>0.5217533167621178</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5583864525794979</v>
+        <v>0.5663885527444421</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7948717948717947</v>
+        <v>0.7750000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451061/OBAPPA4451061_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451061/OBAPPA4451061_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,10 +479,10 @@
         <v>53.82648213538997</v>
       </c>
       <c r="C2" t="n">
-        <v>22.93344040622372</v>
+        <v>20.40312638961974</v>
       </c>
       <c r="D2" t="n">
-        <v>86.04233812919263</v>
+        <v>85.53825182483169</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -499,10 +499,10 @@
         <v>10.82848564057594</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.54454994385607</v>
+        <v>-22.15123715952626</v>
       </c>
       <c r="D3" t="n">
-        <v>42.08053246522654</v>
+        <v>42.46946840254105</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -519,10 +519,10 @@
         <v>27.94921185343732</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.33663517028174</v>
+        <v>-2.759844870876803</v>
       </c>
       <c r="D4" t="n">
-        <v>59.53974921714978</v>
+        <v>61.37556780465182</v>
       </c>
       <c r="E4" t="n">
         <v>88</v>
@@ -539,10 +539,10 @@
         <v>18.13483450057912</v>
       </c>
       <c r="C5" t="n">
-        <v>-13.78949005605992</v>
+        <v>-12.63103496937793</v>
       </c>
       <c r="D5" t="n">
-        <v>50.80200587017138</v>
+        <v>51.63811369649994</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -559,10 +559,10 @@
         <v>24.02797065247991</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.899301480648907</v>
+        <v>-7.112230603124299</v>
       </c>
       <c r="D6" t="n">
-        <v>55.9532759679399</v>
+        <v>56.86347799343015</v>
       </c>
       <c r="E6" t="n">
         <v>32</v>
@@ -576,13 +576,13 @@
         <v>44775</v>
       </c>
       <c r="B7" t="n">
-        <v>33.8488264704396</v>
+        <v>33.84880400446676</v>
       </c>
       <c r="C7" t="n">
-        <v>3.700092020004206</v>
+        <v>2.195808028338718</v>
       </c>
       <c r="D7" t="n">
-        <v>64.0689708161606</v>
+        <v>64.70941388677313</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -596,13 +596,13 @@
         <v>44782</v>
       </c>
       <c r="B8" t="n">
-        <v>42.38259979441759</v>
+        <v>42.38263016982199</v>
       </c>
       <c r="C8" t="n">
-        <v>12.93998098865577</v>
+        <v>11.14788294548142</v>
       </c>
       <c r="D8" t="n">
-        <v>73.46568943751456</v>
+        <v>73.32210871365965</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -616,13 +616,13 @@
         <v>44789</v>
       </c>
       <c r="B9" t="n">
-        <v>37.84613989983447</v>
+        <v>37.84629789542976</v>
       </c>
       <c r="C9" t="n">
-        <v>9.836079111212227</v>
+        <v>6.193266750840598</v>
       </c>
       <c r="D9" t="n">
-        <v>68.16756280149734</v>
+        <v>68.58510249939879</v>
       </c>
       <c r="E9" t="n">
         <v>48</v>
@@ -636,13 +636,13 @@
         <v>44796</v>
       </c>
       <c r="B10" t="n">
-        <v>37.83378218380737</v>
+        <v>37.83378183231061</v>
       </c>
       <c r="C10" t="n">
-        <v>6.667278770385662</v>
+        <v>5.427977825539332</v>
       </c>
       <c r="D10" t="n">
-        <v>69.86360597545924</v>
+        <v>67.7956804861326</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
@@ -656,13 +656,13 @@
         <v>44806</v>
       </c>
       <c r="B11" t="n">
-        <v>9.556218361035967</v>
+        <v>9.544451681297492</v>
       </c>
       <c r="C11" t="n">
-        <v>-21.60374702814703</v>
+        <v>-22.07854276218064</v>
       </c>
       <c r="D11" t="n">
-        <v>40.42810331760694</v>
+        <v>39.72412876107968</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
@@ -676,13 +676,13 @@
         <v>44810</v>
       </c>
       <c r="B12" t="n">
-        <v>43.89991982462634</v>
+        <v>43.91659293881511</v>
       </c>
       <c r="C12" t="n">
-        <v>11.7378778572803</v>
+        <v>10.35520507811563</v>
       </c>
       <c r="D12" t="n">
-        <v>75.52192745016492</v>
+        <v>74.86220709699023</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
@@ -696,13 +696,13 @@
         <v>44817</v>
       </c>
       <c r="B13" t="n">
-        <v>59.84662269849123</v>
+        <v>59.84662269829663</v>
       </c>
       <c r="C13" t="n">
-        <v>28.79768243373618</v>
+        <v>28.18473265604964</v>
       </c>
       <c r="D13" t="n">
-        <v>92.64960063907083</v>
+        <v>90.50658844268902</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -716,13 +716,13 @@
         <v>44824</v>
       </c>
       <c r="B14" t="n">
-        <v>76.70958215607584</v>
+        <v>76.70957871725696</v>
       </c>
       <c r="C14" t="n">
-        <v>47.18814719883991</v>
+        <v>45.7041486081778</v>
       </c>
       <c r="D14" t="n">
-        <v>108.8554027856979</v>
+        <v>106.8833694379471</v>
       </c>
       <c r="E14" t="n">
         <v>72</v>
@@ -736,13 +736,13 @@
         <v>44831</v>
       </c>
       <c r="B15" t="n">
-        <v>93.07271247037458</v>
+        <v>93.071442021705</v>
       </c>
       <c r="C15" t="n">
-        <v>61.82137272021495</v>
+        <v>63.247719899975</v>
       </c>
       <c r="D15" t="n">
-        <v>122.9895577375027</v>
+        <v>123.7649427953277</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -756,13 +756,13 @@
         <v>44838</v>
       </c>
       <c r="B16" t="n">
-        <v>91.08660315134574</v>
+        <v>91.08660312127653</v>
       </c>
       <c r="C16" t="n">
-        <v>58.06859782804958</v>
+        <v>60.52334627029143</v>
       </c>
       <c r="D16" t="n">
-        <v>122.1763863620214</v>
+        <v>119.319542526911</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -776,13 +776,13 @@
         <v>44845</v>
       </c>
       <c r="B17" t="n">
-        <v>75.51858759125726</v>
+        <v>75.51858759452384</v>
       </c>
       <c r="C17" t="n">
-        <v>43.27571431588694</v>
+        <v>43.78308597942833</v>
       </c>
       <c r="D17" t="n">
-        <v>108.0368286649455</v>
+        <v>107.8205567587017</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
@@ -796,13 +796,13 @@
         <v>44852</v>
       </c>
       <c r="B18" t="n">
-        <v>55.21242708860252</v>
+        <v>55.21366976371374</v>
       </c>
       <c r="C18" t="n">
-        <v>25.2229631783139</v>
+        <v>21.69148668974658</v>
       </c>
       <c r="D18" t="n">
-        <v>86.35964539504614</v>
+        <v>86.79675356169435</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -816,13 +816,13 @@
         <v>44859</v>
       </c>
       <c r="B19" t="n">
-        <v>33.62963710553219</v>
+        <v>33.62983028856276</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4545655262840849</v>
+        <v>1.987335777868516</v>
       </c>
       <c r="D19" t="n">
-        <v>65.77031133665176</v>
+        <v>65.62872310863676</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -836,13 +836,13 @@
         <v>44865</v>
       </c>
       <c r="B20" t="n">
-        <v>21.91638558274023</v>
+        <v>21.91639166672842</v>
       </c>
       <c r="C20" t="n">
-        <v>-10.35682385481809</v>
+        <v>-8.312702247090892</v>
       </c>
       <c r="D20" t="n">
-        <v>52.44665064052906</v>
+        <v>54.6390999421013</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -856,13 +856,13 @@
         <v>44869</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.428000807396966</v>
+        <v>-8.428000810286598</v>
       </c>
       <c r="C21" t="n">
-        <v>-37.99373673472946</v>
+        <v>-40.73072732162336</v>
       </c>
       <c r="D21" t="n">
-        <v>24.20254621669069</v>
+        <v>22.25164266073007</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -876,13 +876,13 @@
         <v>44873</v>
       </c>
       <c r="B22" t="n">
-        <v>20.53471137347197</v>
+        <v>20.53471137056771</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.91634334634737</v>
+        <v>-10.8113963046606</v>
       </c>
       <c r="D22" t="n">
-        <v>52.64016700999653</v>
+        <v>50.40143684835519</v>
       </c>
       <c r="E22" t="n">
         <v>40</v>
@@ -896,13 +896,13 @@
         <v>44880</v>
       </c>
       <c r="B23" t="n">
-        <v>27.34985609246278</v>
+        <v>27.36008326190653</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.05069443323903</v>
+        <v>-5.497290545540304</v>
       </c>
       <c r="D23" t="n">
-        <v>59.14171711235227</v>
+        <v>59.17465203499888</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -916,13 +916,13 @@
         <v>44887</v>
       </c>
       <c r="B24" t="n">
-        <v>24.99879388267838</v>
+        <v>24.99930772033122</v>
       </c>
       <c r="C24" t="n">
-        <v>-6.560164748105509</v>
+        <v>-7.262647557273763</v>
       </c>
       <c r="D24" t="n">
-        <v>57.10169281185243</v>
+        <v>57.5929918135025</v>
       </c>
       <c r="E24" t="n">
         <v>48</v>
@@ -936,13 +936,13 @@
         <v>44894</v>
       </c>
       <c r="B25" t="n">
-        <v>29.49719814143866</v>
+        <v>29.49673161924144</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.799367182545079</v>
+        <v>-2.455568307452038</v>
       </c>
       <c r="D25" t="n">
-        <v>59.93851857894089</v>
+        <v>62.00104986481696</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -956,13 +956,13 @@
         <v>44901</v>
       </c>
       <c r="B26" t="n">
-        <v>26.53298160939013</v>
+        <v>26.53253835408106</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.32179571471266</v>
+        <v>-3.975539339061878</v>
       </c>
       <c r="D26" t="n">
-        <v>59.63436159127468</v>
+        <v>58.13206438373201</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
@@ -976,13 +976,13 @@
         <v>44908</v>
       </c>
       <c r="B27" t="n">
-        <v>25.67799665854369</v>
+        <v>24.90943131769665</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.007846191703887</v>
+        <v>-6.208714490358537</v>
       </c>
       <c r="D27" t="n">
-        <v>57.1958520430853</v>
+        <v>55.29149079612638</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -996,19 +996,19 @@
         <v>44922</v>
       </c>
       <c r="B28" t="n">
-        <v>27.61190434052704</v>
+        <v>27.611897631494</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.39086617522609</v>
+        <v>-4.166874811349754</v>
       </c>
       <c r="D28" t="n">
-        <v>56.78681980435589</v>
+        <v>58.19803102077467</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44915</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="29">
@@ -1016,19 +1016,19 @@
         <v>44929</v>
       </c>
       <c r="B29" t="n">
-        <v>37.5261555319034</v>
+        <v>37.52487140217557</v>
       </c>
       <c r="C29" t="n">
-        <v>7.247017550811939</v>
+        <v>4.867002820780907</v>
       </c>
       <c r="D29" t="n">
-        <v>68.58735187440996</v>
+        <v>67.67000392072561</v>
       </c>
       <c r="E29" t="n">
         <v>32</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44922</v>
+        <v>44928</v>
       </c>
     </row>
     <row r="30">
@@ -1036,19 +1036,19 @@
         <v>44936</v>
       </c>
       <c r="B30" t="n">
-        <v>54.6797227367512</v>
+        <v>54.67948511484394</v>
       </c>
       <c r="C30" t="n">
-        <v>22.77490027764372</v>
+        <v>23.76346989137072</v>
       </c>
       <c r="D30" t="n">
-        <v>86.53696932340138</v>
+        <v>84.6772901554</v>
       </c>
       <c r="E30" t="n">
         <v>40</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44929</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="31">
@@ -1056,19 +1056,19 @@
         <v>44943</v>
       </c>
       <c r="B31" t="n">
-        <v>59.04308320441444</v>
+        <v>59.4104050086828</v>
       </c>
       <c r="C31" t="n">
-        <v>30.943661618057</v>
+        <v>28.74480091408536</v>
       </c>
       <c r="D31" t="n">
-        <v>90.38287539576334</v>
+        <v>91.16704014392307</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44936</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="32">
@@ -1076,19 +1076,19 @@
         <v>44953</v>
       </c>
       <c r="B32" t="n">
-        <v>3.339470277814057</v>
+        <v>3.338420754768313</v>
       </c>
       <c r="C32" t="n">
-        <v>-30.49611344003526</v>
+        <v>-28.25924254143606</v>
       </c>
       <c r="D32" t="n">
-        <v>36.80228472103896</v>
+        <v>34.46504222238556</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44950</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="33">
@@ -1096,19 +1096,19 @@
         <v>44957</v>
       </c>
       <c r="B33" t="n">
-        <v>17.88119019650649</v>
+        <v>19.75081113542878</v>
       </c>
       <c r="C33" t="n">
-        <v>-13.07630917894833</v>
+        <v>-9.927469714687364</v>
       </c>
       <c r="D33" t="n">
-        <v>48.82682756615036</v>
+        <v>50.19973257783097</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44950</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34">
@@ -1116,19 +1116,19 @@
         <v>44960</v>
       </c>
       <c r="B34" t="n">
-        <v>-15.31796441998889</v>
+        <v>-15.00421888851745</v>
       </c>
       <c r="C34" t="n">
-        <v>-45.10396190360744</v>
+        <v>-45.25518982161121</v>
       </c>
       <c r="D34" t="n">
-        <v>16.22064542310567</v>
+        <v>15.70073578978669</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44957</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35">
@@ -1136,19 +1136,19 @@
         <v>44964</v>
       </c>
       <c r="B35" t="n">
-        <v>6.773043484330826</v>
+        <v>8.369255663121852</v>
       </c>
       <c r="C35" t="n">
-        <v>-24.76002982562302</v>
+        <v>-24.38640260808809</v>
       </c>
       <c r="D35" t="n">
-        <v>37.90626068937647</v>
+        <v>38.25798534890507</v>
       </c>
       <c r="E35" t="n">
         <v>24</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44957</v>
+        <v>44963</v>
       </c>
     </row>
     <row r="36">
@@ -1156,19 +1156,19 @@
         <v>44971</v>
       </c>
       <c r="B36" t="n">
-        <v>21.72762882902617</v>
+        <v>21.72763719240249</v>
       </c>
       <c r="C36" t="n">
-        <v>-10.30902727981922</v>
+        <v>-10.02753680524843</v>
       </c>
       <c r="D36" t="n">
-        <v>51.02193121473744</v>
+        <v>54.84574450604117</v>
       </c>
       <c r="E36" t="n">
         <v>48</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="37">
@@ -1176,19 +1176,19 @@
         <v>44980</v>
       </c>
       <c r="B37" t="n">
-        <v>89.0027680534736</v>
+        <v>89.94359015358343</v>
       </c>
       <c r="C37" t="n">
-        <v>56.57636565530653</v>
+        <v>58.37368328541481</v>
       </c>
       <c r="D37" t="n">
-        <v>119.7784027397496</v>
+        <v>118.7355216827787</v>
       </c>
       <c r="E37" t="n">
         <v>32</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44978</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="38">
@@ -1196,19 +1196,19 @@
         <v>44985</v>
       </c>
       <c r="B38" t="n">
-        <v>82.65580614690742</v>
+        <v>79.99877037792345</v>
       </c>
       <c r="C38" t="n">
-        <v>49.14108597266826</v>
+        <v>48.88020465263578</v>
       </c>
       <c r="D38" t="n">
-        <v>113.0861923357834</v>
+        <v>110.850049803789</v>
       </c>
       <c r="E38" t="n">
         <v>24</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44978</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="39">
@@ -1216,19 +1216,19 @@
         <v>44988</v>
       </c>
       <c r="B39" t="n">
-        <v>53.04363944051276</v>
+        <v>58.69009157661103</v>
       </c>
       <c r="C39" t="n">
-        <v>22.52815333162771</v>
+        <v>29.6128793752</v>
       </c>
       <c r="D39" t="n">
-        <v>84.76821688378384</v>
+        <v>89.7085481778588</v>
       </c>
       <c r="E39" t="n">
         <v>32</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44985</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="40">
@@ -1236,19 +1236,19 @@
         <v>44992</v>
       </c>
       <c r="B40" t="n">
-        <v>79.9673497661928</v>
+        <v>77.21261410343195</v>
       </c>
       <c r="C40" t="n">
-        <v>49.35447333770605</v>
+        <v>45.3784003322957</v>
       </c>
       <c r="D40" t="n">
-        <v>111.3970348224666</v>
+        <v>108.8080041078681</v>
       </c>
       <c r="E40" t="n">
         <v>80</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44985</v>
+        <v>44991</v>
       </c>
     </row>
     <row r="41">
@@ -1256,19 +1256,19 @@
         <v>44999</v>
       </c>
       <c r="B41" t="n">
-        <v>65.56744084986319</v>
+        <v>65.56754949276602</v>
       </c>
       <c r="C41" t="n">
-        <v>33.70776349261328</v>
+        <v>35.74542759563353</v>
       </c>
       <c r="D41" t="n">
-        <v>98.61493082432001</v>
+        <v>96.92390691613737</v>
       </c>
       <c r="E41" t="n">
         <v>24</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44992</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="42">
@@ -1276,19 +1276,19 @@
         <v>45006</v>
       </c>
       <c r="B42" t="n">
-        <v>39.86698885513889</v>
+        <v>39.8646212375543</v>
       </c>
       <c r="C42" t="n">
-        <v>6.34485086970898</v>
+        <v>8.589298542737369</v>
       </c>
       <c r="D42" t="n">
-        <v>72.90866495244796</v>
+        <v>71.45540268399547</v>
       </c>
       <c r="E42" t="n">
         <v>32</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44999</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="43">
@@ -1296,19 +1296,19 @@
         <v>45013</v>
       </c>
       <c r="B43" t="n">
-        <v>26.07406469693969</v>
+        <v>26.04798343306404</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.771824462712906</v>
+        <v>-4.015538871267725</v>
       </c>
       <c r="D43" t="n">
-        <v>57.82077254466358</v>
+        <v>60.7127371478728</v>
       </c>
       <c r="E43" t="n">
         <v>32</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45006</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="44">
@@ -1316,19 +1316,19 @@
         <v>45020</v>
       </c>
       <c r="B44" t="n">
-        <v>23.36469736042199</v>
+        <v>23.48142495440963</v>
       </c>
       <c r="C44" t="n">
-        <v>-9.690006718167259</v>
+        <v>-6.932832472326839</v>
       </c>
       <c r="D44" t="n">
-        <v>56.82620902648684</v>
+        <v>53.86501955703284</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45013</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="45">
@@ -1336,19 +1336,19 @@
         <v>45027</v>
       </c>
       <c r="B45" t="n">
-        <v>24.853202645614</v>
+        <v>24.85277046946031</v>
       </c>
       <c r="C45" t="n">
-        <v>-7.352009530329213</v>
+        <v>-6.647468383715892</v>
       </c>
       <c r="D45" t="n">
-        <v>53.95196351838303</v>
+        <v>56.29910925135047</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45020</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="46">
@@ -1356,19 +1356,19 @@
         <v>45034</v>
       </c>
       <c r="B46" t="n">
-        <v>24.10507097860154</v>
+        <v>24.13221112133919</v>
       </c>
       <c r="C46" t="n">
-        <v>-6.261573817536493</v>
+        <v>-4.080205303278456</v>
       </c>
       <c r="D46" t="n">
-        <v>53.46037164331945</v>
+        <v>56.46281144643098</v>
       </c>
       <c r="E46" t="n">
         <v>32</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="47">
@@ -1376,78 +1376,58 @@
         <v>45040</v>
       </c>
       <c r="B47" t="n">
-        <v>15.89491030717867</v>
+        <v>16.31474322552829</v>
       </c>
       <c r="C47" t="n">
-        <v>-16.89378184982935</v>
+        <v>-13.6799565002247</v>
       </c>
       <c r="D47" t="n">
-        <v>46.85757192470838</v>
+        <v>48.75025358559341</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45034</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.86411872245545</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-14.75306952560713</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50.54744686695705</v>
+      </c>
+      <c r="E48" t="n">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B48" t="n">
-        <v>22.91482562420138</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-8.506616102610336</v>
-      </c>
-      <c r="D48" t="n">
-        <v>53.5748066841034</v>
-      </c>
-      <c r="E48" t="n">
-        <v>96</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B49" t="n">
-        <v>27.30107990849201</v>
+        <v>16.54986933620316</v>
       </c>
       <c r="C49" t="n">
-        <v>-4.203577102740029</v>
+        <v>-15.65378915325501</v>
       </c>
       <c r="D49" t="n">
-        <v>59.81890765470798</v>
+        <v>47.94257183065056</v>
       </c>
       <c r="E49" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B50" t="n">
-        <v>17.09849419923272</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-12.81851121330283</v>
-      </c>
-      <c r="D50" t="n">
-        <v>49.68529287480941</v>
-      </c>
-      <c r="E50" t="n">
-        <v>16</v>
-      </c>
-      <c r="F50" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1462,7 +1442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,80 +1494,132 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>324.5330573325982</v>
+        <v>625.820711247349</v>
       </c>
       <c r="C2" t="n">
-        <v>18.01480106280939</v>
+        <v>25.01640883994641</v>
       </c>
       <c r="D2" t="n">
-        <v>16.84423839807878</v>
+        <v>18.35019368742529</v>
       </c>
       <c r="E2" t="n">
-        <v>1.240288386209584</v>
+        <v>1.109940399368657</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7463256419271238</v>
+        <v>0.4675890596506018</v>
       </c>
       <c r="G2" t="n">
-        <v>1.211645608831099</v>
+        <v>0.5721422626970194</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>186.5998354468122</v>
+        <v>1039.583765393135</v>
       </c>
       <c r="C3" t="n">
-        <v>13.66015503011632</v>
+        <v>32.24257690373297</v>
       </c>
       <c r="D3" t="n">
-        <v>11.87494317151911</v>
+        <v>25.49966341049915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9593036649344417</v>
+        <v>1.222298206502191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8441159823074798</v>
+        <v>1.256236538629468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8490423225842914</v>
+        <v>1.104223910253194</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>610.3636073537807</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.70553798956381</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.96388828021483</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.430809908040737</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8127070322980376</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.250574455565942</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>359.2185885940303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.95306277608003</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.06807034427215</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.217678976207821</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8127070322980376</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.052537395503172</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>805.8054013736473</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.38671170413451</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.15729479623724</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9048859889705998</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5217533167621178</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5663885527444421</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7750000000000004</v>
+      <c r="B6" t="n">
+        <v>704.8498060309907</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.54900762798848</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.53054522710964</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7970047480632045</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5733039082192466</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5484393456346162</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAPPA4451061/OBAPPA4451061_Sell in_metricas.xlsx
+++ b/modelos/OBAPPA4451061/OBAPPA4451061_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>53.82648213538997</v>
       </c>
       <c r="C2" t="n">
-        <v>20.40312638961974</v>
+        <v>22.46163954110624</v>
       </c>
       <c r="D2" t="n">
-        <v>85.53825182483169</v>
+        <v>84.16956428558969</v>
       </c>
       <c r="E2" t="n">
         <v>16</v>
@@ -499,10 +499,10 @@
         <v>10.82848564057594</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.15123715952626</v>
+        <v>-19.84238932607742</v>
       </c>
       <c r="D3" t="n">
-        <v>42.46946840254105</v>
+        <v>43.38742480928119</v>
       </c>
       <c r="E3" t="n">
         <v>16</v>
@@ -519,10 +519,10 @@
         <v>27.94921185343732</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.759844870876803</v>
+        <v>-2.817174492724356</v>
       </c>
       <c r="D4" t="n">
-        <v>61.37556780465182</v>
+        <v>58.8720862126734</v>
       </c>
       <c r="E4" t="n">
         <v>88</v>
@@ -539,10 +539,10 @@
         <v>18.13483450057912</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.63103496937793</v>
+        <v>-15.82147650268639</v>
       </c>
       <c r="D5" t="n">
-        <v>51.63811369649994</v>
+        <v>49.74931327314524</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
@@ -559,10 +559,10 @@
         <v>24.02797065247991</v>
       </c>
       <c r="C6" t="n">
-        <v>-7.112230603124299</v>
+        <v>-8.041462651931072</v>
       </c>
       <c r="D6" t="n">
-        <v>56.86347799343015</v>
+        <v>55.48178492540108</v>
       </c>
       <c r="E6" t="n">
         <v>32</v>
@@ -579,10 +579,10 @@
         <v>33.84880400446676</v>
       </c>
       <c r="C7" t="n">
-        <v>2.195808028338718</v>
+        <v>1.500059032600647</v>
       </c>
       <c r="D7" t="n">
-        <v>64.70941388677313</v>
+        <v>64.50859356868401</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
@@ -599,10 +599,10 @@
         <v>42.38263016982199</v>
       </c>
       <c r="C8" t="n">
-        <v>11.14788294548142</v>
+        <v>12.16738701910854</v>
       </c>
       <c r="D8" t="n">
-        <v>73.32210871365965</v>
+        <v>72.21884815495716</v>
       </c>
       <c r="E8" t="n">
         <v>16</v>
@@ -619,10 +619,10 @@
         <v>37.84629789542976</v>
       </c>
       <c r="C9" t="n">
-        <v>6.193266750840598</v>
+        <v>6.790056191855657</v>
       </c>
       <c r="D9" t="n">
-        <v>68.58510249939879</v>
+        <v>69.67228672917135</v>
       </c>
       <c r="E9" t="n">
         <v>48</v>
@@ -639,10 +639,10 @@
         <v>37.83378183231061</v>
       </c>
       <c r="C10" t="n">
-        <v>5.427977825539332</v>
+        <v>5.898488142383327</v>
       </c>
       <c r="D10" t="n">
-        <v>67.7956804861326</v>
+        <v>70.08765157540604</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
@@ -659,10 +659,10 @@
         <v>9.544451681297492</v>
       </c>
       <c r="C11" t="n">
-        <v>-22.07854276218064</v>
+        <v>-20.8495940721632</v>
       </c>
       <c r="D11" t="n">
-        <v>39.72412876107968</v>
+        <v>39.23494505421162</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
@@ -679,10 +679,10 @@
         <v>43.91659293881511</v>
       </c>
       <c r="C12" t="n">
-        <v>10.35520507811563</v>
+        <v>14.91506173230656</v>
       </c>
       <c r="D12" t="n">
-        <v>74.86220709699023</v>
+        <v>76.16407395679316</v>
       </c>
       <c r="E12" t="n">
         <v>40</v>
@@ -699,10 +699,10 @@
         <v>59.84662269829663</v>
       </c>
       <c r="C13" t="n">
-        <v>28.18473265604964</v>
+        <v>29.93896352646005</v>
       </c>
       <c r="D13" t="n">
-        <v>90.50658844268902</v>
+        <v>90.77421907284082</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
@@ -719,10 +719,10 @@
         <v>76.70957871725696</v>
       </c>
       <c r="C14" t="n">
-        <v>45.7041486081778</v>
+        <v>48.92834948263938</v>
       </c>
       <c r="D14" t="n">
-        <v>106.8833694379471</v>
+        <v>110.0752544518362</v>
       </c>
       <c r="E14" t="n">
         <v>72</v>
@@ -739,10 +739,10 @@
         <v>93.071442021705</v>
       </c>
       <c r="C15" t="n">
-        <v>63.247719899975</v>
+        <v>61.33078701959764</v>
       </c>
       <c r="D15" t="n">
-        <v>123.7649427953277</v>
+        <v>121.2552927732719</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -759,10 +759,10 @@
         <v>91.08660312127653</v>
       </c>
       <c r="C16" t="n">
-        <v>60.52334627029143</v>
+        <v>59.66107917345632</v>
       </c>
       <c r="D16" t="n">
-        <v>119.319542526911</v>
+        <v>120.8240572969658</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
@@ -779,10 +779,10 @@
         <v>75.51858759452384</v>
       </c>
       <c r="C17" t="n">
-        <v>43.78308597942833</v>
+        <v>44.70786132561422</v>
       </c>
       <c r="D17" t="n">
-        <v>107.8205567587017</v>
+        <v>107.1579716634535</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
@@ -799,10 +799,10 @@
         <v>55.21366976371374</v>
       </c>
       <c r="C18" t="n">
-        <v>21.69148668974658</v>
+        <v>23.53612283907261</v>
       </c>
       <c r="D18" t="n">
-        <v>86.79675356169435</v>
+        <v>87.71780051070334</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -819,10 +819,10 @@
         <v>33.62983028856276</v>
       </c>
       <c r="C19" t="n">
-        <v>1.987335777868516</v>
+        <v>4.316782038489015</v>
       </c>
       <c r="D19" t="n">
-        <v>65.62872310863676</v>
+        <v>65.43978234020359</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -839,10 +839,10 @@
         <v>21.91639166672842</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.312702247090892</v>
+        <v>-7.858161515464256</v>
       </c>
       <c r="D20" t="n">
-        <v>54.6390999421013</v>
+        <v>54.09773375106455</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
@@ -859,10 +859,10 @@
         <v>-8.428000810286598</v>
       </c>
       <c r="C21" t="n">
-        <v>-40.73072732162336</v>
+        <v>-41.21229493631778</v>
       </c>
       <c r="D21" t="n">
-        <v>22.25164266073007</v>
+        <v>22.46344316047902</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -879,10 +879,10 @@
         <v>20.53471137056771</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.8113963046606</v>
+        <v>-11.19006518956888</v>
       </c>
       <c r="D22" t="n">
-        <v>50.40143684835519</v>
+        <v>53.48863432865115</v>
       </c>
       <c r="E22" t="n">
         <v>40</v>
@@ -899,10 +899,10 @@
         <v>27.36008326190653</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.497290545540304</v>
+        <v>-4.588907866588079</v>
       </c>
       <c r="D23" t="n">
-        <v>59.17465203499888</v>
+        <v>58.27320356025605</v>
       </c>
       <c r="E23" t="n">
         <v>16</v>
@@ -919,10 +919,10 @@
         <v>24.99930772033122</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.262647557273763</v>
+        <v>-7.463714114558019</v>
       </c>
       <c r="D24" t="n">
-        <v>57.5929918135025</v>
+        <v>61.25198600535676</v>
       </c>
       <c r="E24" t="n">
         <v>48</v>
@@ -939,10 +939,10 @@
         <v>29.49673161924144</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.455568307452038</v>
+        <v>-0.9097758386037562</v>
       </c>
       <c r="D25" t="n">
-        <v>62.00104986481696</v>
+        <v>61.15130978258098</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -959,10 +959,10 @@
         <v>26.53253835408106</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.975539339061878</v>
+        <v>-3.971207187282448</v>
       </c>
       <c r="D26" t="n">
-        <v>58.13206438373201</v>
+        <v>58.19085725226842</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
@@ -979,10 +979,10 @@
         <v>24.90943131769665</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.208714490358537</v>
+        <v>-6.334903054592454</v>
       </c>
       <c r="D27" t="n">
-        <v>55.29149079612638</v>
+        <v>54.11393074010153</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
@@ -999,10 +999,10 @@
         <v>27.611897631494</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.166874811349754</v>
+        <v>-3.104849530117038</v>
       </c>
       <c r="D28" t="n">
-        <v>58.19803102077467</v>
+        <v>58.61619766504632</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -1019,10 +1019,10 @@
         <v>37.52487140217557</v>
       </c>
       <c r="C29" t="n">
-        <v>4.867002820780907</v>
+        <v>3.508462401860989</v>
       </c>
       <c r="D29" t="n">
-        <v>67.67000392072561</v>
+        <v>64.6361725353719</v>
       </c>
       <c r="E29" t="n">
         <v>32</v>
@@ -1039,10 +1039,10 @@
         <v>54.67948511484394</v>
       </c>
       <c r="C30" t="n">
-        <v>23.76346989137072</v>
+        <v>21.3761850693964</v>
       </c>
       <c r="D30" t="n">
-        <v>84.6772901554</v>
+        <v>85.3247168441323</v>
       </c>
       <c r="E30" t="n">
         <v>40</v>
@@ -1059,10 +1059,10 @@
         <v>59.4104050086828</v>
       </c>
       <c r="C31" t="n">
-        <v>28.74480091408536</v>
+        <v>27.96323729039144</v>
       </c>
       <c r="D31" t="n">
-        <v>91.16704014392307</v>
+        <v>89.35159509451054</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1079,10 +1079,10 @@
         <v>3.338420754768313</v>
       </c>
       <c r="C32" t="n">
-        <v>-28.25924254143606</v>
+        <v>-28.56442445617407</v>
       </c>
       <c r="D32" t="n">
-        <v>34.46504222238556</v>
+        <v>35.51847405942845</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -1099,10 +1099,10 @@
         <v>19.75081113542878</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.927469714687364</v>
+        <v>-8.450967632640685</v>
       </c>
       <c r="D33" t="n">
-        <v>50.19973257783097</v>
+        <v>49.64597041553149</v>
       </c>
       <c r="E33" t="n">
         <v>16</v>
@@ -1119,10 +1119,10 @@
         <v>-15.00421888851745</v>
       </c>
       <c r="C34" t="n">
-        <v>-45.25518982161121</v>
+        <v>-46.31368478375224</v>
       </c>
       <c r="D34" t="n">
-        <v>15.70073578978669</v>
+        <v>15.81487239087345</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -1139,10 +1139,10 @@
         <v>8.369255663121852</v>
       </c>
       <c r="C35" t="n">
-        <v>-24.38640260808809</v>
+        <v>-22.27386513473675</v>
       </c>
       <c r="D35" t="n">
-        <v>38.25798534890507</v>
+        <v>41.80099265821931</v>
       </c>
       <c r="E35" t="n">
         <v>24</v>
@@ -1159,10 +1159,10 @@
         <v>21.72763719240249</v>
       </c>
       <c r="C36" t="n">
-        <v>-10.02753680524843</v>
+        <v>-7.333693564560393</v>
       </c>
       <c r="D36" t="n">
-        <v>54.84574450604117</v>
+        <v>52.91605668011537</v>
       </c>
       <c r="E36" t="n">
         <v>48</v>
@@ -1179,10 +1179,10 @@
         <v>89.94359015358343</v>
       </c>
       <c r="C37" t="n">
-        <v>58.37368328541481</v>
+        <v>56.87273238182475</v>
       </c>
       <c r="D37" t="n">
-        <v>118.7355216827787</v>
+        <v>122.0641451290876</v>
       </c>
       <c r="E37" t="n">
         <v>32</v>
@@ -1199,10 +1199,10 @@
         <v>79.99877037792345</v>
       </c>
       <c r="C38" t="n">
-        <v>48.88020465263578</v>
+        <v>47.95968884723376</v>
       </c>
       <c r="D38" t="n">
-        <v>110.850049803789</v>
+        <v>110.4123472386443</v>
       </c>
       <c r="E38" t="n">
         <v>24</v>
@@ -1219,10 +1219,10 @@
         <v>58.69009157661103</v>
       </c>
       <c r="C39" t="n">
-        <v>29.6128793752</v>
+        <v>27.76415831489706</v>
       </c>
       <c r="D39" t="n">
-        <v>89.7085481778588</v>
+        <v>92.01960104490796</v>
       </c>
       <c r="E39" t="n">
         <v>32</v>
@@ -1239,10 +1239,10 @@
         <v>77.21261410343195</v>
       </c>
       <c r="C40" t="n">
-        <v>45.3784003322957</v>
+        <v>46.27142744964963</v>
       </c>
       <c r="D40" t="n">
-        <v>108.8080041078681</v>
+        <v>108.6435271478004</v>
       </c>
       <c r="E40" t="n">
         <v>80</v>
@@ -1259,10 +1259,10 @@
         <v>65.56754949276602</v>
       </c>
       <c r="C41" t="n">
-        <v>35.74542759563353</v>
+        <v>33.35326320418073</v>
       </c>
       <c r="D41" t="n">
-        <v>96.92390691613737</v>
+        <v>95.38142873273355</v>
       </c>
       <c r="E41" t="n">
         <v>24</v>
@@ -1279,10 +1279,10 @@
         <v>39.8646212375543</v>
       </c>
       <c r="C42" t="n">
-        <v>8.589298542737369</v>
+        <v>8.384774298110017</v>
       </c>
       <c r="D42" t="n">
-        <v>71.45540268399547</v>
+        <v>70.75222136373787</v>
       </c>
       <c r="E42" t="n">
         <v>32</v>
@@ -1299,10 +1299,10 @@
         <v>26.04798343306404</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.015538871267725</v>
+        <v>-5.739330949392267</v>
       </c>
       <c r="D43" t="n">
-        <v>60.7127371478728</v>
+        <v>59.08055289534456</v>
       </c>
       <c r="E43" t="n">
         <v>32</v>
@@ -1319,10 +1319,10 @@
         <v>23.48142495440963</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.932832472326839</v>
+        <v>-7.213233098086608</v>
       </c>
       <c r="D44" t="n">
-        <v>53.86501955703284</v>
+        <v>54.83481500825111</v>
       </c>
       <c r="E44" t="n">
         <v>16</v>
@@ -1339,10 +1339,10 @@
         <v>24.85277046946031</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.647468383715892</v>
+        <v>-3.596627944385435</v>
       </c>
       <c r="D45" t="n">
-        <v>56.29910925135047</v>
+        <v>56.42725920242664</v>
       </c>
       <c r="E45" t="n">
         <v>16</v>
@@ -1359,10 +1359,10 @@
         <v>24.13221112133919</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.080205303278456</v>
+        <v>-8.163735945210496</v>
       </c>
       <c r="D46" t="n">
-        <v>56.46281144643098</v>
+        <v>56.32793769302415</v>
       </c>
       <c r="E46" t="n">
         <v>32</v>
@@ -1379,10 +1379,10 @@
         <v>16.31474322552829</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.6799565002247</v>
+        <v>-15.67896890712043</v>
       </c>
       <c r="D47" t="n">
-        <v>48.75025358559341</v>
+        <v>47.71539706716394</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -1399,10 +1399,10 @@
         <v>19.86411872245545</v>
       </c>
       <c r="C48" t="n">
-        <v>-14.75306952560713</v>
+        <v>-11.31553376398288</v>
       </c>
       <c r="D48" t="n">
-        <v>50.54744686695705</v>
+        <v>52.68645293142654</v>
       </c>
       <c r="E48" t="n">
         <v>48</v>
@@ -1419,10 +1419,10 @@
         <v>16.54986933620316</v>
       </c>
       <c r="C49" t="n">
-        <v>-15.65378915325501</v>
+        <v>-13.43019029171073</v>
       </c>
       <c r="D49" t="n">
-        <v>47.94257183065056</v>
+        <v>47.63787989327754</v>
       </c>
       <c r="E49" t="n">
         <v>16</v>
